--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/74.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/74.xlsx
@@ -479,13 +479,13 @@
         <v>-3.92797003477665</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.69474150411943</v>
+        <v>-11.58261902258289</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6702893424269416</v>
+        <v>-0.7447976378992046</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.714789362011315</v>
+        <v>-8.552248422231287</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.297440567051595</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.30742200020368</v>
+        <v>-12.19118853557484</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6689146506285604</v>
+        <v>-0.7534647423804273</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.624544118523298</v>
+        <v>-8.463980116472369</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.586690062662817</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.70127774659133</v>
+        <v>-12.58855301912407</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6423896450712233</v>
+        <v>-0.7147900797859685</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.059427958663035</v>
+        <v>-7.912453766961817</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.932087875495444</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.2803895781894</v>
+        <v>-13.16588429753566</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6401246766796047</v>
+        <v>-0.7170419558747454</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.795906087064772</v>
+        <v>-7.642097713280173</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.359104334835464</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.69444674786183</v>
+        <v>-13.58698512613694</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7819797779697066</v>
+        <v>-0.8732854979879043</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.379976718085976</v>
+        <v>-7.227529943796918</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.9038378039318459</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.37069037424266</v>
+        <v>-14.25634220122303</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5727516862560824</v>
+        <v>-0.6710094190832365</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.903403802344306</v>
+        <v>-6.756429610643089</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.5598299785671029</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.10994725420072</v>
+        <v>-14.99383162029745</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7200400932255007</v>
+        <v>-0.8142523044745614</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.636425562795828</v>
+        <v>-6.486086649264287</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3162992049800397</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.70497932605433</v>
+        <v>-15.59391732104797</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6715200188940639</v>
+        <v>-0.757497171655679</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.295672196734223</v>
+        <v>-6.14160197689279</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1453977292745674</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.41035332625801</v>
+        <v>-16.29286300055636</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6214812374329868</v>
+        <v>-0.712328726851724</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.184112684219875</v>
+        <v>-6.036261308228263</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03209826200427596</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.9069836499532</v>
+        <v>-16.79894596690328</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7041329452728035</v>
+        <v>-0.7863395148160015</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.96395251963341</v>
+        <v>-5.814124205912696</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.02913570165964932</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.47014905669005</v>
+        <v>-17.36215065054865</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6564376860203954</v>
+        <v>-0.7396916397909314</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.670501643738961</v>
+        <v>-5.524862866927601</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.03370545765585602</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.83958765827787</v>
+        <v>-17.74023017201202</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6584539006580212</v>
+        <v>-0.7383693172039172</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.134044534799236</v>
+        <v>-4.995004278620105</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.02705403904599924</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.68240465371399</v>
+        <v>-18.57377781703619</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4090979007345065</v>
+        <v>-0.4979815447269848</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.683459840198392</v>
+        <v>-4.531837880988362</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1508987350801266</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.35119875977788</v>
+        <v>-19.25392294966386</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.269468490927498</v>
+        <v>-0.3588496424279619</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.579637878663504</v>
+        <v>-4.429246595920596</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.3192159537519668</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.1686952415181</v>
+        <v>-20.06711206376915</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.08169868357146275</v>
+        <v>-0.173213880435128</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.228554685659778</v>
+        <v>-4.078124126008345</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.5003983602977693</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.97823160313055</v>
+        <v>-20.86689465976451</v>
       </c>
       <c r="F17" t="n">
-        <v>0.199340689229029</v>
+        <v>0.09779678838860165</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.014181318929355</v>
+        <v>-3.854376670443246</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.6531816341414641</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.6228835027543</v>
+        <v>-21.50481711572761</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1420225873879523</v>
+        <v>0.04661897658029445</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.865230189499037</v>
+        <v>-3.699232881768793</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.7381265314651382</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.13966288052291</v>
+        <v>-22.02386146188784</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4824355535756718</v>
+        <v>0.3747906396110001</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.413729033699272</v>
+        <v>-3.24896240243615</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.727759407783926</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.58503683859275</v>
+        <v>-22.47444615648869</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7254810635294745</v>
+        <v>0.6230076091872846</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.012305936269109</v>
+        <v>-2.834014956170484</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.6093314340677609</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.18928589164693</v>
+        <v>-23.08113037787143</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8795643756737487</v>
+        <v>0.7824194885881413</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.861731361286418</v>
+        <v>-2.677784506360167</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.388667324277998</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.63383503463774</v>
+        <v>-23.52547004401677</v>
       </c>
       <c r="F22" t="n">
-        <v>1.049672666496295</v>
+        <v>0.9561019780864792</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.790509233827428</v>
+        <v>-2.601220719341752</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.08925048342767131</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.00675618878146</v>
+        <v>-23.89437186118809</v>
       </c>
       <c r="F23" t="n">
-        <v>1.252550991331683</v>
+        <v>1.148611199071219</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.521135102858914</v>
+        <v>-2.340461323643094</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.2547024454766194</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.62432011382568</v>
+        <v>-24.4855155190977</v>
       </c>
       <c r="F24" t="n">
-        <v>1.45724914626207</v>
+        <v>1.346723925672218</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.583703218139523</v>
+        <v>-2.408515113814386</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6036008491542566</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.77962101013424</v>
+        <v>-24.64626281338841</v>
       </c>
       <c r="F25" t="n">
-        <v>1.671308297724291</v>
+        <v>1.562354153475447</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.70822411046718</v>
+        <v>-2.545892647532618</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9203023204342502</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.89626033615118</v>
+        <v>-24.77049567505355</v>
       </c>
       <c r="F26" t="n">
-        <v>1.749757376351913</v>
+        <v>1.640724678286019</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.77656593130099</v>
+        <v>-2.624250080040349</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.174760289206908</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.89076156895765</v>
+        <v>-24.76243081650305</v>
       </c>
       <c r="F27" t="n">
-        <v>1.72401790896508</v>
+        <v>1.619096193991487</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.866352944189547</v>
+        <v>-2.720609428955453</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.346091813087176</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.85622407406118</v>
+        <v>-24.7306296129005</v>
       </c>
       <c r="F28" t="n">
-        <v>1.733784766885008</v>
+        <v>1.635304464909544</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.880545000469978</v>
+        <v>-2.745890665742825</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.425061792016671</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.94925797805448</v>
+        <v>-24.81676387329621</v>
       </c>
       <c r="F29" t="n">
-        <v>1.886126802751332</v>
+        <v>1.784347240459754</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.020213687185512</v>
+        <v>-2.893126703500877</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.413134602762632</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.81841350345427</v>
+        <v>-24.67701663276363</v>
       </c>
       <c r="F30" t="n">
-        <v>1.864026995554499</v>
+        <v>1.758581588467237</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.247077110826941</v>
+        <v>-3.124245125565867</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.321029470563831</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.38839681661778</v>
+        <v>-24.2670704461835</v>
       </c>
       <c r="F31" t="n">
-        <v>1.624149822888393</v>
+        <v>1.531220657317822</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.257446214677588</v>
+        <v>-3.144629841090435</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.167350269143673</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.22412769286264</v>
+        <v>-24.097289462932</v>
       </c>
       <c r="F32" t="n">
-        <v>1.724175016599181</v>
+        <v>1.625982745286235</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.620521957084335</v>
+        <v>-3.515783534350527</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9743477634595722</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.04575815894697</v>
+        <v>-23.90060379734075</v>
       </c>
       <c r="F33" t="n">
-        <v>1.584192114615446</v>
+        <v>1.492886394597248</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.699507820128469</v>
+        <v>-3.601145348878581</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.766630700762982</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.54538343663904</v>
+        <v>-23.40381636601145</v>
       </c>
       <c r="F34" t="n">
-        <v>1.424413650735021</v>
+        <v>1.33528125298855</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.795749338317997</v>
+        <v>-3.69344608391275</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5681123641105364</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.05599315641532</v>
+        <v>-22.92711252724137</v>
       </c>
       <c r="F35" t="n">
-        <v>1.424858789031639</v>
+        <v>1.330777500810996</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.802203843618968</v>
+        <v>-3.695396837036167</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3986852109193629</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.63223459033717</v>
+        <v>-22.50421805315077</v>
       </c>
       <c r="F36" t="n">
-        <v>1.310353508377903</v>
+        <v>1.216913742996504</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.852020055931736</v>
+        <v>-3.758789767395804</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.2716476282527202</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.15492850563636</v>
+        <v>-22.0124580661127</v>
       </c>
       <c r="F37" t="n">
-        <v>1.235805935997115</v>
+        <v>1.150797613645788</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.850370425773678</v>
+        <v>-3.743497957676669</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.1924826211695474</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.59220823719613</v>
+        <v>-21.46932388272369</v>
       </c>
       <c r="F38" t="n">
-        <v>1.325304918223154</v>
+        <v>1.227191200727259</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.668361231668003</v>
+        <v>-3.565835408114446</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1604828314978709</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.18876892512835</v>
+        <v>-21.06601549368432</v>
       </c>
       <c r="F39" t="n">
-        <v>1.185701693021829</v>
+        <v>1.104411584677552</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.637188458601853</v>
+        <v>-3.533719989243692</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1677445282752105</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.72240800560322</v>
+        <v>-20.60545446431808</v>
       </c>
       <c r="F40" t="n">
-        <v>1.202577671384814</v>
+        <v>1.105301861270789</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.731217377611129</v>
+        <v>-3.633614259926062</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2019670632778589</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.11766144504105</v>
+        <v>-19.99997473479678</v>
       </c>
       <c r="F41" t="n">
-        <v>1.224991693849849</v>
+        <v>1.133005174083882</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.584046801367287</v>
+        <v>-3.478352640526032</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2488279868536698</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.48805260138245</v>
+        <v>-19.37807725751195</v>
       </c>
       <c r="F42" t="n">
-        <v>1.208351376938015</v>
+        <v>1.12001760966489</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.732500423289618</v>
+        <v>-3.619566218976889</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2906947856596616</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.96491036443275</v>
+        <v>-18.85740946579934</v>
       </c>
       <c r="F43" t="n">
-        <v>1.057056725299029</v>
+        <v>0.9652665900756875</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.631008891660558</v>
+        <v>-3.525851515235814</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.31172827441783</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.58226162927763</v>
+        <v>-18.48027259014058</v>
       </c>
       <c r="F44" t="n">
-        <v>1.037640840184749</v>
+        <v>0.9479061965075587</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.545188846533044</v>
+        <v>-3.436221609981358</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2979510771120687</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.30604022392289</v>
+        <v>-18.20301689286135</v>
       </c>
       <c r="F45" t="n">
-        <v>1.079051794073129</v>
+        <v>0.9963477170219451</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.737580236792208</v>
+        <v>-3.618047511847249</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2364847558229429</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.71553808885252</v>
+        <v>-17.61995118580508</v>
       </c>
       <c r="F46" t="n">
-        <v>1.144146723802191</v>
+        <v>1.059688278170216</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.683430472238829</v>
+        <v>-3.56495822382405</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1206587086774245</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.362700527268</v>
+        <v>-17.27676265141491</v>
       </c>
       <c r="F47" t="n">
-        <v>1.117307502976652</v>
+        <v>1.029615258542771</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.559538010447576</v>
+        <v>-3.447140590551357</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.05306588325668014</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.98092897640327</v>
+        <v>-16.8968502075537</v>
       </c>
       <c r="F48" t="n">
-        <v>1.095718295590646</v>
+        <v>1.008968696961369</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.561986271078978</v>
+        <v>-3.446826375283156</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2851606212713509</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.48377496059441</v>
+        <v>-16.40025916076704</v>
       </c>
       <c r="F49" t="n">
-        <v>1.037431363339282</v>
+        <v>0.9457066896301487</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.473338288537651</v>
+        <v>-3.35841405419298</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.5697866403780143</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.13029587617065</v>
+        <v>-16.04883556788942</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8917402173165538</v>
+        <v>0.7963889757202629</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.532175097508368</v>
+        <v>-3.400453438617762</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.9029240102348007</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.5717127754284</v>
+        <v>-15.4869008376197</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8296696095439305</v>
+        <v>0.7385602740683589</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.589807414617646</v>
+        <v>-3.463348861469414</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.279454863168348</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.18162761225917</v>
+        <v>-15.10285122606051</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9178593614857974</v>
+        <v>0.8264227184391826</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.737108913889906</v>
+        <v>-3.607364192728401</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.691131250967921</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.63502396861711</v>
+        <v>-14.55667962841222</v>
       </c>
       <c r="F53" t="n">
-        <v>1.056454479368309</v>
+        <v>0.9638918982773063</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.867874834673066</v>
+        <v>-3.742162542786812</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.137790585068183</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.25418197125414</v>
+        <v>-14.17867866076591</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9356125241391779</v>
+        <v>0.8415312359185344</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.984933114380939</v>
+        <v>-3.862166590634073</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.614766332277348</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.7505079886301</v>
+        <v>-13.67212437151668</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7340172449822799</v>
+        <v>0.6502657837037583</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.134381751319242</v>
+        <v>-4.00921933615234</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.117570077808525</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.58520457295046</v>
+        <v>-13.51241136915047</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8231103658202258</v>
+        <v>0.7414798576020638</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.237339620866575</v>
+        <v>-4.10917906834892</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.647564500989913</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.22609579830476</v>
+        <v>-13.14767290428282</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7630821572909118</v>
+        <v>0.6725226985346926</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.376419153954232</v>
+        <v>-4.259491797274777</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.199510525732475</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.97694927522671</v>
+        <v>-12.90687927041779</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8254538880288947</v>
+        <v>0.7275365550756255</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.777004344002524</v>
+        <v>-4.655979096533609</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.77390352762329</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.56193636744684</v>
+        <v>-12.50522051153648</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7593639432838616</v>
+        <v>0.6636461172080024</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.961776014007804</v>
+        <v>-4.845529457076118</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.372726005593564</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.0857824053961</v>
+        <v>-12.0300877491074</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6112638135382563</v>
+        <v>0.523335907653224</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.046849797873341</v>
+        <v>-4.938314607315431</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.99037035278129</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.05056411075186</v>
+        <v>-11.98312565881413</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6395562799792264</v>
+        <v>0.5498609132105611</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.279827326941856</v>
+        <v>-5.158186741239379</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.628413888294659</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.71358132790867</v>
+        <v>-11.64382553836795</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5619189241277908</v>
+        <v>0.4708881424692694</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.610407973695439</v>
+        <v>-5.479943175877638</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.282254769757285</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.48426964363584</v>
+        <v>-11.40856994860498</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4927522882149519</v>
+        <v>0.4018393372820062</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.615749633254863</v>
+        <v>-5.483582836067638</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.940035271131931</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.25206456043499</v>
+        <v>-11.18713983064287</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4330906641652063</v>
+        <v>0.3517350943067205</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.571955880249289</v>
+        <v>-5.447146957259115</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.600039533250074</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.21373029771441</v>
+        <v>-11.13639406482834</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4521792417084429</v>
+        <v>0.3644477203660365</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.567478312677419</v>
+        <v>-5.445235481044223</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.250725615940821</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.06011830847244</v>
+        <v>-10.98492921325241</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4315457724298826</v>
+        <v>0.3446259738636632</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.64113560846497</v>
+        <v>-5.52334415979796</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.88017543749555</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.9630257905982</v>
+        <v>-10.89543023102637</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2220689269622655</v>
+        <v>0.1347563593107944</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.736277373215794</v>
+        <v>-5.600510192747094</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.47936806460802</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.95472527059655</v>
+        <v>-10.88304491253809</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2137814992634529</v>
+        <v>0.124020670980579</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.55989786933206</v>
+        <v>-5.431004147855266</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.03152629716533</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.92075074472227</v>
+        <v>-10.84562711101644</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2195552048166541</v>
+        <v>0.1352538668187799</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.342041950045738</v>
+        <v>-5.204140724213837</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.52460612882878</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.90760607266917</v>
+        <v>-10.8406258513309</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.08095242230948436</v>
+        <v>-0.1660000215693369</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.170912459601537</v>
+        <v>-5.043275599197549</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.94854415415447</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.75513311377443</v>
+        <v>-10.6989278576749</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.04615308135617647</v>
+        <v>-0.1321695110263167</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.170742259664594</v>
+        <v>-5.030942649920643</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.29154612906971</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.93053069494504</v>
+        <v>-10.86900996389176</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002641931334936586</v>
+        <v>-0.09049671108110266</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.018596608340895</v>
+        <v>-4.883025812414822</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.55167700196449</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.11157105864042</v>
+        <v>-11.04847925124615</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.1176894240833677</v>
+        <v>-0.2052114685803065</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.942124467442373</v>
+        <v>-4.80071450444889</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.730133436356</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.46308629763793</v>
+        <v>-11.40140845895056</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1511402578439778</v>
+        <v>-0.2380338718045137</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.940343914255899</v>
+        <v>-4.799549289495976</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.82709834997454</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.88450134150741</v>
+        <v>-11.81356724471093</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2109328049221408</v>
+        <v>-0.3004317871481801</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.747729954848425</v>
+        <v>-4.606071238100949</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.84838406408601</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.93624212233791</v>
+        <v>-11.87953935873039</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2654622462579299</v>
+        <v>-0.3649113786436811</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.512919503382068</v>
+        <v>-4.360420359881642</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.79882840804856</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.34700003169422</v>
+        <v>-12.29906911099066</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3119922905574243</v>
+        <v>-0.4049083638251542</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.334379769529449</v>
+        <v>-4.185481009310499</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.67982928226945</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.1720769567798</v>
+        <v>-13.11824140749462</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4962664530547187</v>
+        <v>-0.595231170235326</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.230191223514994</v>
+        <v>-4.082654062791582</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.49205989789699</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.75532595607585</v>
+        <v>-13.69561196281474</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5422466206348606</v>
+        <v>-0.6353459861423747</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.170660522493665</v>
+        <v>-4.001337769841622</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.2346453628514</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.31537539473637</v>
+        <v>-14.26140892242277</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5776743921245714</v>
+        <v>-0.6690586659598193</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.870454018332886</v>
+        <v>-3.71802033634667</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.90276223298004</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.99066328300976</v>
+        <v>-14.93263819681523</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5761687772977729</v>
+        <v>-0.6803180464037037</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.448973512949199</v>
+        <v>-3.302928874749745</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.49686971821793</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.91621054010274</v>
+        <v>-15.86003146860889</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.8074181223911804</v>
+        <v>-0.9002425495390183</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.302771767115644</v>
+        <v>-3.149094316359463</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.01899603199366</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.65993189532983</v>
+        <v>-16.60506205412016</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.8936833058153135</v>
+        <v>-0.9873718249507052</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.131982676545327</v>
+        <v>-2.984209854370765</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.46989204796362</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.59430336453813</v>
+        <v>-17.5403237999217</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.039413728746566</v>
+        <v>-1.136951384917426</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.849791181094764</v>
+        <v>-2.702450404913979</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.863765590235699</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.62809778152651</v>
+        <v>-18.56886820347054</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.083744266168651</v>
+        <v>-1.183337413885661</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.848351027782174</v>
+        <v>-2.688363087056281</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.212353274493456</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.89625751168462</v>
+        <v>-19.83209213545732</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.271252227467851</v>
+        <v>-1.367938883953999</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.568856546717006</v>
+        <v>-2.424959046183595</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.52885278743801</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.01024228357857</v>
+        <v>-20.94987367517537</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.239555762288033</v>
+        <v>-1.33268131240123</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.768134488270918</v>
+        <v>-2.614470129817579</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.834777045997265</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.54560282243347</v>
+        <v>-22.48219679977099</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.191690303098682</v>
+        <v>-1.2984711250758</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.552622091193265</v>
+        <v>-2.404037546242516</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.145247327915989</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.82778440893507</v>
+        <v>-23.76825370791374</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.443769502013276</v>
+        <v>-1.531579577172733</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.654310007364951</v>
+        <v>-2.51063507597985</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.47787252282005</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.39347981347425</v>
+        <v>-25.33274462059148</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.417755096266766</v>
+        <v>-1.50675657098482</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.571841591764919</v>
+        <v>-2.447975314579349</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.851530432374025</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.06984445393454</v>
+        <v>-27.00529940092483</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.519377550924244</v>
+        <v>-1.605917672708053</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.719889352299158</v>
+        <v>-2.593758106721969</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.276790442027522</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.71384492177008</v>
+        <v>-28.65169576018041</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.669965218209777</v>
+        <v>-1.744408052167832</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.938308240607673</v>
+        <v>-2.794659493828255</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.77118620153992</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.5392916146891</v>
+        <v>-30.47303147000713</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.787259159368801</v>
+        <v>-1.859476301843762</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.956912402945767</v>
+        <v>-2.826748728093326</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.347317473799066</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.30082168513482</v>
+        <v>-32.22966501919004</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.670357987295029</v>
+        <v>-1.750639988320493</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.329977572420751</v>
+        <v>-3.197889329050577</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.011443470871968</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.16093679597873</v>
+        <v>-34.08565605463881</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.992978513920843</v>
+        <v>-2.066282317531667</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.385515121075353</v>
+        <v>-3.255547830765538</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.771684543779689</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.13958961675164</v>
+        <v>-36.05873155440113</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.234492224442163</v>
+        <v>-2.315127717644355</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.847293734605873</v>
+        <v>-3.720206750921238</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.623149092649116</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.28019422367669</v>
+        <v>-38.19255434845417</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.300372692341729</v>
+        <v>-2.383312430844064</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.987145713561191</v>
+        <v>-3.856131039024038</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.554427307076272</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.52742254494476</v>
+        <v>-40.44389365281455</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.448538283601543</v>
+        <v>-2.53156966822377</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.415604416359518</v>
+        <v>-4.280230004976071</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.549145348986453</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.64192110000342</v>
+        <v>-42.54722447354921</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.659416005473225</v>
+        <v>-2.740496636972034</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.614974004033322</v>
+        <v>-4.481890745647177</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.584063358301899</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.82474838359303</v>
+        <v>-44.72413403625437</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.793166971304299</v>
+        <v>-2.873357326209871</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.66949035306627</v>
+        <v>-4.534980033670376</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.634299018623266</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.85422552399752</v>
+        <v>-46.76865423262399</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.906546313913646</v>
+        <v>-2.987312730144254</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.162847601051033</v>
+        <v>-5.029109727522801</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.67864754173074</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.13629246312743</v>
+        <v>-49.04496055850354</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.205443587790252</v>
+        <v>-3.286105265598127</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.492721263451164</v>
+        <v>-5.356404206263112</v>
       </c>
     </row>
   </sheetData>
